--- a/data-raw/HospitalListasofJune24.xlsx
+++ b/data-raw/HospitalListasofJune24.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fbd27568508755f1/Propeller/Upskilling Resources/cocolife-directory/data-raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8BEEA03B8B26118E1B09456CDB6D994859D6CB5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{071204E1-1855-4204-BD0A-81B78C383C22}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="452"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="as of June '24" sheetId="1" r:id="rId1"/>
@@ -13,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'as of June ''24'!$A$1:$XCS$699</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -7331,8 +7324,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7869,74 +7862,74 @@
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="18"/>
-    <cellStyle name="Normal 10 2" xfId="45"/>
-    <cellStyle name="Normal 11" xfId="37"/>
-    <cellStyle name="Normal 11 2" xfId="54"/>
-    <cellStyle name="Normal 12" xfId="9"/>
-    <cellStyle name="Normal 12 2" xfId="40"/>
-    <cellStyle name="Normal 12 2 2" xfId="58"/>
-    <cellStyle name="Normal 12 3" xfId="33"/>
-    <cellStyle name="Normal 12 3 2" xfId="65"/>
-    <cellStyle name="Normal 12 4" xfId="50"/>
-    <cellStyle name="Normal 13" xfId="19"/>
-    <cellStyle name="Normal 14" xfId="26"/>
-    <cellStyle name="Normal 14 2" xfId="44"/>
-    <cellStyle name="Normal 15" xfId="27"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 2 2" xfId="13"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="23"/>
-    <cellStyle name="Normal 2 2 3" xfId="21"/>
-    <cellStyle name="Normal 2 3" xfId="4"/>
-    <cellStyle name="Normal 2 4" xfId="12"/>
-    <cellStyle name="Normal 2 5" xfId="20"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 3 2" xfId="8"/>
-    <cellStyle name="Normal 3 2 2" xfId="39"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="57"/>
-    <cellStyle name="Normal 3 2 3" xfId="32"/>
-    <cellStyle name="Normal 3 2 3 2" xfId="64"/>
-    <cellStyle name="Normal 3 2 4" xfId="49"/>
-    <cellStyle name="Normal 3 3" xfId="16"/>
-    <cellStyle name="Normal 3 3 2" xfId="55"/>
-    <cellStyle name="Normal 3 4" xfId="30"/>
-    <cellStyle name="Normal 3 4 2" xfId="62"/>
-    <cellStyle name="Normal 3 5" xfId="47"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 4 2" xfId="14"/>
-    <cellStyle name="Normal 4 3" xfId="22"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 5 2" xfId="38"/>
-    <cellStyle name="Normal 5 2 2" xfId="56"/>
-    <cellStyle name="Normal 5 3" xfId="31"/>
-    <cellStyle name="Normal 5 3 2" xfId="63"/>
-    <cellStyle name="Normal 5 4" xfId="48"/>
-    <cellStyle name="Normal 6" xfId="1"/>
-    <cellStyle name="Normal 6 2" xfId="11"/>
-    <cellStyle name="Normal 6 3" xfId="10"/>
-    <cellStyle name="Normal 6 3 2" xfId="46"/>
-    <cellStyle name="Normal 7" xfId="17"/>
-    <cellStyle name="Normal 7 2" xfId="41"/>
-    <cellStyle name="Normal 7 2 2" xfId="59"/>
-    <cellStyle name="Normal 7 3" xfId="34"/>
-    <cellStyle name="Normal 7 3 2" xfId="66"/>
-    <cellStyle name="Normal 7 4" xfId="51"/>
-    <cellStyle name="Normal 7 5" xfId="24"/>
-    <cellStyle name="Normal 8" xfId="15"/>
-    <cellStyle name="Normal 8 2" xfId="42"/>
-    <cellStyle name="Normal 8 2 2" xfId="60"/>
-    <cellStyle name="Normal 8 3" xfId="35"/>
-    <cellStyle name="Normal 8 3 2" xfId="67"/>
-    <cellStyle name="Normal 8 4" xfId="52"/>
-    <cellStyle name="Normal 9" xfId="25"/>
-    <cellStyle name="Normal 9 2" xfId="28"/>
-    <cellStyle name="Normal 9 2 2" xfId="29"/>
-    <cellStyle name="Normal 9 2 3" xfId="61"/>
-    <cellStyle name="Normal 9 3" xfId="43"/>
-    <cellStyle name="Normal 9 3 2" xfId="68"/>
-    <cellStyle name="Normal 9 4" xfId="36"/>
-    <cellStyle name="Normal 9 5" xfId="53"/>
+    <cellStyle name="Normal 10" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 10 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 11" xfId="37" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 11 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 12" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 12 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 12 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 12 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 12 4" xfId="50" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 13" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 14" xfId="26" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 14 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 15" xfId="27" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 2 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 3 2 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 3 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 3 4" xfId="30" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 3 5" xfId="47" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 4 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 5 3" xfId="31" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 5 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 6 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 6 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 7" xfId="17" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 7 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 7 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 7 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 7 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 7 4" xfId="51" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 7 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 8" xfId="15" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 8 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 8 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 8 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 8 3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 8 4" xfId="52" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 9" xfId="25" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normal 9 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Normal 9 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normal 9 3" xfId="43" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normal 9 3 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal 9 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 9 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7952,9 +7945,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7992,7 +7985,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8026,6 +8019,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8060,9 +8054,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8235,25 +8230,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="28.36328125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="56" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" style="57" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="16"/>
+    <col min="1" max="3" width="28.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="56" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="56" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="57" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>2206</v>
       </c>
@@ -8279,7 +8275,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="24">
+    <row r="2" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8304,7 +8300,7 @@
       </c>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="24">
+    <row r="3" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1052</v>
       </c>
@@ -8329,7 +8325,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59" t="s">
         <v>2319</v>
       </c>
@@ -8354,7 +8350,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8379,7 +8375,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="24">
+    <row r="6" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -8404,7 +8400,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="36">
+    <row r="7" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1144</v>
       </c>
@@ -8429,7 +8425,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -8454,7 +8450,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="24">
+    <row r="9" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -8479,7 +8475,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="36">
+    <row r="10" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2061</v>
       </c>
@@ -8504,7 +8500,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="24">
+    <row r="11" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -8529,7 +8525,7 @@
       </c>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="36">
+    <row r="12" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -8554,7 +8550,7 @@
       </c>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="24">
+    <row r="13" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -8578,7 +8574,7 @@
         <v>10406</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24">
+    <row r="14" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>10022</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="48">
+    <row r="15" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>982</v>
       </c>
@@ -8626,7 +8622,7 @@
         <v>10796</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24">
+    <row r="16" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -8650,7 +8646,7 @@
         <v>11094</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24">
+    <row r="17" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -8674,7 +8670,7 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="36">
+    <row r="18" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -8698,7 +8694,7 @@
         <v>10172</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24">
+    <row r="19" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>1330</v>
       </c>
@@ -8722,7 +8718,7 @@
         <v>12805</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="24">
+    <row r="20" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -8746,7 +8742,7 @@
         <v>10385</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60">
+    <row r="21" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -8770,7 +8766,7 @@
         <v>10188</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="24">
+    <row r="22" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>1145</v>
       </c>
@@ -8794,7 +8790,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="36">
+    <row r="23" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -8818,7 +8814,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="24">
+    <row r="24" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -8842,7 +8838,7 @@
         <v>11678</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="24">
+    <row r="25" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1675</v>
       </c>
@@ -8866,7 +8862,7 @@
         <v>13030</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="24">
+    <row r="26" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -8890,7 +8886,7 @@
         <v>10124</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="24">
+    <row r="27" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>10145</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="24">
+    <row r="28" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1496</v>
       </c>
@@ -8938,7 +8934,7 @@
         <v>10930</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="24">
+    <row r="29" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>946</v>
       </c>
@@ -8962,7 +8958,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -8986,7 +8982,7 @@
         <v>10191</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="24">
+    <row r="31" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -9010,7 +9006,7 @@
         <v>10201</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -9034,7 +9030,7 @@
         <v>10202</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="24">
+    <row r="33" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -9058,7 +9054,7 @@
         <v>10207</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="24">
+    <row r="34" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -9082,7 +9078,7 @@
         <v>10224</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>11766</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1021</v>
       </c>
@@ -9130,7 +9126,7 @@
         <v>11525</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1146</v>
       </c>
@@ -9154,7 +9150,7 @@
         <v>10308</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="36">
+    <row r="38" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -9178,7 +9174,7 @@
         <v>10091</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="36">
+    <row r="39" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1051</v>
       </c>
@@ -9202,7 +9198,7 @@
         <v>10349</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="36">
+    <row r="40" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -9226,7 +9222,7 @@
         <v>10782</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -9250,7 +9246,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1147</v>
       </c>
@@ -9274,7 +9270,7 @@
         <v>10633</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="24">
+    <row r="43" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>1148</v>
       </c>
@@ -9298,7 +9294,7 @@
         <v>10971</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="24">
+    <row r="44" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -9322,7 +9318,7 @@
         <v>11884</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="24">
+    <row r="45" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -9346,7 +9342,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="24">
+    <row r="46" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -9370,7 +9366,7 @@
         <v>11026</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="24">
+    <row r="47" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -9394,7 +9390,7 @@
         <v>10023</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="24">
+    <row r="48" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>1053</v>
       </c>
@@ -9418,7 +9414,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="24">
+    <row r="49" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1149</v>
       </c>
@@ -9442,7 +9438,7 @@
         <v>10208</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="24">
+    <row r="50" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -9466,7 +9462,7 @@
         <v>10933</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="24">
+    <row r="51" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="62" t="s">
         <v>2019</v>
       </c>
@@ -9490,7 +9486,7 @@
         <v>13796</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="24">
+    <row r="52" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>1150</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>10209</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="24">
+    <row r="53" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>1151</v>
       </c>
@@ -9538,7 +9534,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="24">
+    <row r="54" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1152</v>
       </c>
@@ -9562,7 +9558,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="36">
+    <row r="55" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>1153</v>
       </c>
@@ -9586,7 +9582,7 @@
         <v>11544</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="24">
+    <row r="56" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -9610,7 +9606,7 @@
         <v>10278</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="36">
+    <row r="57" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>1154</v>
       </c>
@@ -9634,7 +9630,7 @@
         <v>10313</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="24">
+    <row r="58" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>1155</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>11439</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="36">
+    <row r="59" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>1077</v>
       </c>
@@ -9682,7 +9678,7 @@
         <v>10193</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="36">
+    <row r="60" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>1156</v>
       </c>
@@ -9706,7 +9702,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="24">
+    <row r="61" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
@@ -9730,7 +9726,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="36">
+    <row r="62" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>57</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>11671</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="24">
+    <row r="63" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
@@ -9778,7 +9774,7 @@
         <v>10652</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="24">
+    <row r="64" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>1157</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>12415</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="24">
+    <row r="65" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>1158</v>
       </c>
@@ -9826,7 +9822,7 @@
         <v>11092</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="36">
+    <row r="66" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1159</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>10947</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="24">
+    <row r="67" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>59</v>
       </c>
@@ -9874,7 +9870,7 @@
         <v>11227</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="36">
+    <row r="68" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>60</v>
       </c>
@@ -9898,7 +9894,7 @@
         <v>10213</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="24">
+    <row r="69" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>61</v>
       </c>
@@ -9922,7 +9918,7 @@
         <v>11608</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="24">
+    <row r="70" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1771</v>
       </c>
@@ -9946,7 +9942,7 @@
         <v>11857</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="24">
+    <row r="71" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>62</v>
       </c>
@@ -9970,7 +9966,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="24">
+    <row r="72" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>63</v>
       </c>
@@ -9994,7 +9990,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>1160</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>10110</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="36">
+    <row r="74" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
@@ -10042,7 +10038,7 @@
         <v>11033</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>67</v>
       </c>
@@ -10066,7 +10062,7 @@
         <v>10148</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="36">
+    <row r="76" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>974</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>12535</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="24">
+    <row r="77" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>1161</v>
       </c>
@@ -10114,7 +10110,7 @@
         <v>11403</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="24">
+    <row r="78" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>69</v>
       </c>
@@ -10138,7 +10134,7 @@
         <v>10068</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="24">
+    <row r="79" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>1162</v>
       </c>
@@ -10162,7 +10158,7 @@
         <v>11427</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="24">
+    <row r="80" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>1163</v>
       </c>
@@ -10186,7 +10182,7 @@
         <v>10087</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="24">
+    <row r="81" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>70</v>
       </c>
@@ -10210,7 +10206,7 @@
         <v>10092</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>71</v>
       </c>
@@ -10234,7 +10230,7 @@
         <v>10181</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="24">
+    <row r="83" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>1050</v>
       </c>
@@ -10258,7 +10254,7 @@
         <v>11271</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="24">
+    <row r="84" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>1164</v>
       </c>
@@ -10282,7 +10278,7 @@
         <v>10237</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="24">
+    <row r="85" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -10306,7 +10302,7 @@
         <v>10246</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="24">
+    <row r="86" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>1054</v>
       </c>
@@ -10330,7 +10326,7 @@
         <v>11292</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="24">
+    <row r="87" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>73</v>
       </c>
@@ -10354,7 +10350,7 @@
         <v>10266</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="24">
+    <row r="88" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>1022</v>
       </c>
@@ -10378,7 +10374,7 @@
         <v>10269</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="24">
+    <row r="89" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>1165</v>
       </c>
@@ -10402,7 +10398,7 @@
         <v>10855</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="24">
+    <row r="90" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>1166</v>
       </c>
@@ -10426,7 +10422,7 @@
         <v>11405</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="24">
+    <row r="91" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>981</v>
       </c>
@@ -10450,7 +10446,7 @@
         <v>12534</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="24">
+    <row r="92" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>1167</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>10302</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="48">
+    <row r="93" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>74</v>
       </c>
@@ -10498,7 +10494,7 @@
         <v>10335</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="24">
+    <row r="94" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>75</v>
       </c>
@@ -10522,7 +10518,7 @@
         <v>10382</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="24">
+    <row r="95" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>76</v>
       </c>
@@ -10546,7 +10542,7 @@
         <v>10384</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>1168</v>
       </c>
@@ -10570,7 +10566,7 @@
         <v>11159</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="36">
+    <row r="97" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>77</v>
       </c>
@@ -10594,7 +10590,7 @@
         <v>10821</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="24">
+    <row r="98" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>78</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="36">
+    <row r="99" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>79</v>
       </c>
@@ -10642,7 +10638,7 @@
         <v>10820</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="24">
+    <row r="100" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="64" t="s">
         <v>2329</v>
       </c>
@@ -10666,7 +10662,7 @@
         <v>14122</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="24">
+    <row r="101" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>81</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>10139</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="24">
+    <row r="102" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>1801</v>
       </c>
@@ -10714,7 +10710,7 @@
         <v>11649</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="24">
+    <row r="103" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>82</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>12454</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="24">
+    <row r="104" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>1169</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>10882</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="24">
+    <row r="105" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>1056</v>
       </c>
@@ -10786,7 +10782,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="36">
+    <row r="106" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>84</v>
       </c>
@@ -10810,7 +10806,7 @@
         <v>10059</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="36">
+    <row r="107" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>1170</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>10085</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="24">
+    <row r="108" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>992</v>
       </c>
@@ -10858,7 +10854,7 @@
         <v>11471</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="36">
+    <row r="109" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2028</v>
       </c>
@@ -10882,7 +10878,7 @@
         <v>13840</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="24">
+    <row r="110" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>90</v>
       </c>
@@ -10906,7 +10902,7 @@
         <v>10072</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="24">
+    <row r="111" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>94</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>12487</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="48">
+    <row r="112" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -10954,7 +10950,7 @@
         <v>10786</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="24">
+    <row r="113" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>1079</v>
       </c>
@@ -10978,7 +10974,7 @@
         <v>10273</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="50.75" customHeight="1">
+    <row r="114" spans="1:8" ht="50.85" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>1966</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>10334</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="50.75" customHeight="1">
+    <row r="115" spans="1:8" ht="50.85" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>2281</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>14095</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>2121</v>
       </c>
@@ -11050,7 +11046,7 @@
         <v>10090</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="36">
+    <row r="117" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>948</v>
       </c>
@@ -11074,7 +11070,7 @@
         <v>11141</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="24">
+    <row r="118" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>1349</v>
       </c>
@@ -11098,7 +11094,7 @@
         <v>12834</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="24">
+    <row r="119" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>110</v>
       </c>
@@ -11122,7 +11118,7 @@
         <v>11097</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="36">
+    <row r="120" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>949</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>10283</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="36">
+    <row r="121" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>2023</v>
       </c>
@@ -11170,7 +11166,7 @@
         <v>10780</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="36">
+    <row r="122" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>1403</v>
       </c>
@@ -11194,7 +11190,7 @@
         <v>10844</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="36">
+    <row r="123" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>116</v>
       </c>
@@ -11218,7 +11214,7 @@
         <v>11125</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="48">
+    <row r="124" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>1099</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>12676</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="48">
+    <row r="125" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>1639</v>
       </c>
@@ -11266,7 +11262,7 @@
         <v>12748</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="36">
+    <row r="126" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>119</v>
       </c>
@@ -11290,7 +11286,7 @@
         <v>11559</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="24">
+    <row r="127" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>122</v>
       </c>
@@ -11314,7 +11310,7 @@
         <v>11429</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="24">
+    <row r="128" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="22" t="s">
         <v>124</v>
       </c>
@@ -11338,7 +11334,7 @@
         <v>10629</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="36">
+    <row r="129" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
@@ -11362,7 +11358,7 @@
         <v>10613</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="36">
+    <row r="130" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11386,7 +11382,7 @@
         <v>10043</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>103</v>
       </c>
@@ -11410,7 +11406,7 @@
         <v>10889</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="36">
+    <row r="132" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>1085</v>
       </c>
@@ -11434,7 +11430,7 @@
         <v>10170</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="36">
+    <row r="133" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>1705</v>
       </c>
@@ -11458,7 +11454,7 @@
         <v>10178</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="24">
+    <row r="134" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>2144</v>
       </c>
@@ -11482,7 +11478,7 @@
         <v>13967</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="24">
+    <row r="135" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>129</v>
       </c>
@@ -11506,7 +11502,7 @@
         <v>12705</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="36">
+    <row r="136" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>131</v>
       </c>
@@ -11530,7 +11526,7 @@
         <v>10140</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="36">
+    <row r="137" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>133</v>
       </c>
@@ -11554,7 +11550,7 @@
         <v>11565</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="24">
+    <row r="138" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>1068</v>
       </c>
@@ -11578,7 +11574,7 @@
         <v>12595</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="24">
+    <row r="139" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>2159</v>
       </c>
@@ -11602,7 +11598,7 @@
         <v>10952</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="24">
+    <row r="140" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>135</v>
       </c>
@@ -11626,7 +11622,7 @@
         <v>11074</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -11650,7 +11646,7 @@
         <v>11073</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
@@ -11674,7 +11670,7 @@
         <v>10182</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="24">
+    <row r="143" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
@@ -11698,7 +11694,7 @@
         <v>11867</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="24">
+    <row r="144" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>144</v>
       </c>
@@ -11722,7 +11718,7 @@
         <v>10210</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="48">
+    <row r="145" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>1636</v>
       </c>
@@ -11746,7 +11742,7 @@
         <v>10239</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="24">
+    <row r="146" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1629</v>
       </c>
@@ -11770,7 +11766,7 @@
         <v>13055</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="36">
+    <row r="147" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>1571</v>
       </c>
@@ -11794,7 +11790,7 @@
         <v>10247</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="36">
+    <row r="148" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>1132</v>
       </c>
@@ -11818,7 +11814,7 @@
         <v>10315</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="36">
+    <row r="149" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>1177</v>
       </c>
@@ -11842,7 +11838,7 @@
         <v>12736</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="36">
+    <row r="150" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>1631</v>
       </c>
@@ -11866,7 +11862,7 @@
         <v>10923</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="36">
+    <row r="151" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
@@ -11890,7 +11886,7 @@
         <v>11545</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="24">
+    <row r="152" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>977</v>
       </c>
@@ -11914,7 +11910,7 @@
         <v>12519</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="24">
+    <row r="153" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="64" t="s">
         <v>2332</v>
       </c>
@@ -11938,7 +11934,7 @@
         <v>14123</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="24">
+    <row r="154" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>1652</v>
       </c>
@@ -11962,7 +11958,7 @@
         <v>13103</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="36">
+    <row r="155" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>1082</v>
       </c>
@@ -11986,7 +11982,7 @@
         <v>12650</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="36">
+    <row r="156" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>1101</v>
       </c>
@@ -12010,7 +12006,7 @@
         <v>10939</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="36">
+    <row r="157" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>1412</v>
       </c>
@@ -12034,7 +12030,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="24">
+    <row r="158" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>1394</v>
       </c>
@@ -12058,7 +12054,7 @@
         <v>10343</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="3" customFormat="1" ht="24">
+    <row r="159" spans="1:9" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>967</v>
       </c>
@@ -12083,7 +12079,7 @@
       </c>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="1:9" s="3" customFormat="1">
+    <row r="160" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>2193</v>
       </c>
@@ -12108,7 +12104,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:8" ht="24">
+    <row r="161" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>968</v>
       </c>
@@ -12132,7 +12128,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="48">
+    <row r="162" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>1102</v>
       </c>
@@ -12156,7 +12152,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="24">
+    <row r="163" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1712</v>
       </c>
@@ -12180,7 +12176,7 @@
         <v>13551</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="36">
+    <row r="164" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>164</v>
       </c>
@@ -12204,7 +12200,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="24">
+    <row r="165" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>969</v>
       </c>
@@ -12228,7 +12224,7 @@
         <v>10066</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="36">
+    <row r="166" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>167</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>10138</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="24">
+    <row r="167" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>1407</v>
       </c>
@@ -12276,7 +12272,7 @@
         <v>11170</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="24">
+    <row r="168" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>170</v>
       </c>
@@ -12300,7 +12296,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="48">
+    <row r="169" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>1982</v>
       </c>
@@ -12324,7 +12320,7 @@
         <v>10162</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="24">
+    <row r="170" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>174</v>
       </c>
@@ -12348,7 +12344,7 @@
         <v>11529</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="24">
+    <row r="171" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>176</v>
       </c>
@@ -12372,7 +12368,7 @@
         <v>11249</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="36">
+    <row r="172" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1724</v>
       </c>
@@ -12396,7 +12392,7 @@
         <v>12883</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="24">
+    <row r="173" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="25" t="s">
         <v>179</v>
       </c>
@@ -12420,7 +12416,7 @@
         <v>11642</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="36">
+    <row r="174" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="25" t="s">
         <v>182</v>
       </c>
@@ -12444,7 +12440,7 @@
         <v>12503</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="24">
+    <row r="175" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>155</v>
       </c>
@@ -12468,7 +12464,7 @@
         <v>10669</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="24">
+    <row r="176" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>1137</v>
       </c>
@@ -12492,7 +12488,7 @@
         <v>12561</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="24">
+    <row r="177" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>1109</v>
       </c>
@@ -12516,7 +12512,7 @@
         <v>12686</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="36">
+    <row r="178" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1678</v>
       </c>
@@ -12540,7 +12536,7 @@
         <v>13072</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="36">
+    <row r="179" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>185</v>
       </c>
@@ -12564,7 +12560,7 @@
         <v>10038</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="36">
+    <row r="180" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>188</v>
       </c>
@@ -12588,7 +12584,7 @@
         <v>10951</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="36">
+    <row r="181" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>190</v>
       </c>
@@ -12612,7 +12608,7 @@
         <v>11793</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="36">
+    <row r="182" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>1113</v>
       </c>
@@ -12636,7 +12632,7 @@
         <v>12706</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="36">
+    <row r="183" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>192</v>
       </c>
@@ -12660,7 +12656,7 @@
         <v>10161</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="24">
+    <row r="184" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>195</v>
       </c>
@@ -12684,7 +12680,7 @@
         <v>11084</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="24">
+    <row r="185" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="72" t="s">
         <v>2325</v>
       </c>
@@ -12708,7 +12704,7 @@
         <v>14120</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="24">
+    <row r="186" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>198</v>
       </c>
@@ -12732,7 +12728,7 @@
         <v>10944</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="36">
+    <row r="187" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>202</v>
       </c>
@@ -12756,7 +12752,7 @@
         <v>11464</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="24">
+    <row r="188" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1719</v>
       </c>
@@ -12780,7 +12776,7 @@
         <v>13536</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="24">
+    <row r="189" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>1987</v>
       </c>
@@ -12804,7 +12800,7 @@
         <v>13705</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="24">
+    <row r="190" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="13" t="s">
         <v>2133</v>
       </c>
@@ -12828,7 +12824,7 @@
         <v>13936</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="36">
+    <row r="191" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="73" t="s">
         <v>970</v>
       </c>
@@ -12852,7 +12848,7 @@
         <v>11372</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="60">
+    <row r="192" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>2099</v>
       </c>
@@ -12876,7 +12872,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="24">
+    <row r="193" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>206</v>
       </c>
@@ -12900,7 +12896,7 @@
         <v>10144</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="24">
+    <row r="194" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>209</v>
       </c>
@@ -12924,7 +12920,7 @@
         <v>11177</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="48">
+    <row r="195" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>212</v>
       </c>
@@ -12948,7 +12944,7 @@
         <v>11209</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="24">
+    <row r="196" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>215</v>
       </c>
@@ -12972,7 +12968,7 @@
         <v>12633</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="84">
+    <row r="197" spans="1:8" ht="84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>217</v>
       </c>
@@ -12996,7 +12992,7 @@
         <v>11181</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="24">
+    <row r="198" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>220</v>
       </c>
@@ -13020,7 +13016,7 @@
         <v>11390</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="36">
+    <row r="199" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>1429</v>
       </c>
@@ -13044,7 +13040,7 @@
         <v>11220</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="36">
+    <row r="200" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>224</v>
       </c>
@@ -13068,7 +13064,7 @@
         <v>11747</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="24">
+    <row r="201" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>226</v>
       </c>
@@ -13092,7 +13088,7 @@
         <v>11179</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="36">
+    <row r="202" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>228</v>
       </c>
@@ -13116,7 +13112,7 @@
         <v>11078</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="24">
+    <row r="203" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>230</v>
       </c>
@@ -13140,7 +13136,7 @@
         <v>10189</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="24">
+    <row r="204" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>232</v>
       </c>
@@ -13164,7 +13160,7 @@
         <v>11199</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="24">
+    <row r="205" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>1692</v>
       </c>
@@ -13188,7 +13184,7 @@
         <v>13401</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="24">
+    <row r="206" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>971</v>
       </c>
@@ -13212,7 +13208,7 @@
         <v>10196</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="36">
+    <row r="207" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>236</v>
       </c>
@@ -13236,7 +13232,7 @@
         <v>11731</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="24">
+    <row r="208" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>2048</v>
       </c>
@@ -13260,7 +13256,7 @@
         <v>12797</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="24">
+    <row r="209" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>972</v>
       </c>
@@ -13284,7 +13280,7 @@
         <v>11187</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="24">
+    <row r="210" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>241</v>
       </c>
@@ -13308,7 +13304,7 @@
         <v>11077</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="24">
+    <row r="211" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>2313</v>
       </c>
@@ -13332,7 +13328,7 @@
         <v>10206</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="24">
+    <row r="212" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>973</v>
       </c>
@@ -13357,7 +13353,7 @@
       </c>
       <c r="I212" s="71"/>
     </row>
-    <row r="213" spans="1:9" ht="48">
+    <row r="213" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>2083</v>
       </c>
@@ -13381,7 +13377,7 @@
         <v>11597</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="60">
+    <row r="214" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>2105</v>
       </c>
@@ -13405,7 +13401,7 @@
         <v>10690</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="48">
+    <row r="215" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>1134</v>
       </c>
@@ -13429,7 +13425,7 @@
         <v>10238</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="24">
+    <row r="216" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>248</v>
       </c>
@@ -13453,7 +13449,7 @@
         <v>11596</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="24">
+    <row r="217" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>250</v>
       </c>
@@ -13477,7 +13473,7 @@
         <v>11040</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="24">
+    <row r="218" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>254</v>
       </c>
@@ -13501,7 +13497,7 @@
         <v>10805</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="24">
+    <row r="219" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>1952</v>
       </c>
@@ -13525,7 +13521,7 @@
         <v>13625</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="36">
+    <row r="220" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>257</v>
       </c>
@@ -13549,7 +13545,7 @@
         <v>12404</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="24">
+    <row r="221" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>259</v>
       </c>
@@ -13573,7 +13569,7 @@
         <v>11584</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="24">
+    <row r="222" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>1603</v>
       </c>
@@ -13597,7 +13593,7 @@
         <v>13011</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="24">
+    <row r="223" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>261</v>
       </c>
@@ -13621,7 +13617,7 @@
         <v>11389</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="24">
+    <row r="224" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>1047</v>
       </c>
@@ -13645,7 +13641,7 @@
         <v>12578</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="24">
+    <row r="225" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>264</v>
       </c>
@@ -13669,7 +13665,7 @@
         <v>11191</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="24">
+    <row r="226" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>266</v>
       </c>
@@ -13693,7 +13689,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="24">
+    <row r="227" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>2148</v>
       </c>
@@ -13717,7 +13713,7 @@
         <v>13958</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="24">
+    <row r="228" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>270</v>
       </c>
@@ -13741,7 +13737,7 @@
         <v>10761</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="24">
+    <row r="229" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>272</v>
       </c>
@@ -13765,7 +13761,7 @@
         <v>11109</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="48">
+    <row r="230" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>2412</v>
       </c>
@@ -13789,7 +13785,7 @@
         <v>10309</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="48">
+    <row r="231" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="75" t="s">
         <v>275</v>
       </c>
@@ -13813,7 +13809,7 @@
         <v>11598</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="24">
+    <row r="232" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>950</v>
       </c>
@@ -13837,7 +13833,7 @@
         <v>11748</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="36">
+    <row r="233" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>1484</v>
       </c>
@@ -13861,7 +13857,7 @@
         <v>10344</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="24">
+    <row r="234" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>1389</v>
       </c>
@@ -13885,7 +13881,7 @@
         <v>13004</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="32" t="s">
         <v>2209</v>
       </c>
@@ -13909,7 +13905,7 @@
         <v>14089</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="36">
+    <row r="236" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>281</v>
       </c>
@@ -13933,7 +13929,7 @@
         <v>12447</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="24">
+    <row r="237" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="25" t="s">
         <v>285</v>
       </c>
@@ -13957,7 +13953,7 @@
         <v>11789</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="36">
+    <row r="238" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>288</v>
       </c>
@@ -13981,7 +13977,7 @@
         <v>11811</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="24">
+    <row r="239" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>291</v>
       </c>
@@ -14005,7 +14001,7 @@
         <v>10628</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="36">
+    <row r="240" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>1520</v>
       </c>
@@ -14029,7 +14025,7 @@
         <v>10551</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="48">
+    <row r="241" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>1969</v>
       </c>
@@ -14053,7 +14049,7 @@
         <v>10248</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="24">
+    <row r="242" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>1135</v>
       </c>
@@ -14077,7 +14073,7 @@
         <v>10249</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="24">
+    <row r="243" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1136</v>
       </c>
@@ -14101,7 +14097,7 @@
         <v>12497</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="24">
+    <row r="244" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>1447</v>
       </c>
@@ -14125,7 +14121,7 @@
         <v>12937</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="24">
+    <row r="245" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>1397</v>
       </c>
@@ -14149,7 +14145,7 @@
         <v>10813</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="48">
+    <row r="246" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>1055</v>
       </c>
@@ -14173,7 +14169,7 @@
         <v>10275</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="21">
+    <row r="247" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
         <v>2186</v>
       </c>
@@ -14197,7 +14193,7 @@
         <v>14065</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="36">
+    <row r="248" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>300</v>
       </c>
@@ -14221,7 +14217,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="48">
+    <row r="249" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>310</v>
       </c>
@@ -14245,7 +14241,7 @@
         <v>10026</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="60">
+    <row r="250" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>312</v>
       </c>
@@ -14269,7 +14265,7 @@
         <v>10034</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="36">
+    <row r="251" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>1356</v>
       </c>
@@ -14293,7 +14289,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="36">
+    <row r="252" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>315</v>
       </c>
@@ -14317,7 +14313,7 @@
         <v>10822</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="24">
+    <row r="253" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>318</v>
       </c>
@@ -14341,7 +14337,7 @@
         <v>11566</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="36">
+    <row r="254" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>1111</v>
       </c>
@@ -14365,7 +14361,7 @@
         <v>12716</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="24">
+    <row r="255" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>322</v>
       </c>
@@ -14389,7 +14385,7 @@
         <v>10024</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="24">
+    <row r="256" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>1138</v>
       </c>
@@ -14413,7 +14409,7 @@
         <v>11541</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="36">
+    <row r="257" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>2132</v>
       </c>
@@ -14437,7 +14433,7 @@
         <v>12719</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="36">
+    <row r="258" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>1556</v>
       </c>
@@ -14461,7 +14457,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="24">
+    <row r="259" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>1541</v>
       </c>
@@ -14485,7 +14481,7 @@
         <v>12994</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="60">
+    <row r="260" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>326</v>
       </c>
@@ -14509,7 +14505,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="36">
+    <row r="261" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>2317</v>
       </c>
@@ -14533,7 +14529,7 @@
         <v>10257</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="36">
+    <row r="262" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="76" t="s">
         <v>1396</v>
       </c>
@@ -14557,7 +14553,7 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="36">
+    <row r="263" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>1676</v>
       </c>
@@ -14581,7 +14577,7 @@
         <v>12753</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="48">
+    <row r="264" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>1386</v>
       </c>
@@ -14605,7 +14601,7 @@
         <v>10835</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="36">
+    <row r="265" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>332</v>
       </c>
@@ -14629,7 +14625,7 @@
         <v>11720</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="44.9" customHeight="1">
+    <row r="266" spans="1:9" ht="44.85" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>1411</v>
       </c>
@@ -14653,7 +14649,7 @@
         <v>12582</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="36">
+    <row r="267" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
         <v>1998</v>
       </c>
@@ -14677,7 +14673,7 @@
         <v>12654</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="71" customFormat="1" ht="36">
+    <row r="268" spans="1:9" s="71" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>333</v>
       </c>
@@ -14702,7 +14698,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="36">
+    <row r="269" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>1417</v>
       </c>
@@ -14726,7 +14722,7 @@
         <v>10297</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="36">
+    <row r="270" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>335</v>
       </c>
@@ -14750,7 +14746,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="24">
+    <row r="271" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>1399</v>
       </c>
@@ -14774,7 +14770,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="36">
+    <row r="272" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>337</v>
       </c>
@@ -14798,7 +14794,7 @@
         <v>11344</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="36">
+    <row r="273" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>340</v>
       </c>
@@ -14822,7 +14818,7 @@
         <v>10695</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="48">
+    <row r="274" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>342</v>
       </c>
@@ -14846,7 +14842,7 @@
         <v>11046</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="24">
+    <row r="275" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>343</v>
       </c>
@@ -14870,7 +14866,7 @@
         <v>10379</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="48">
+    <row r="276" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>345</v>
       </c>
@@ -14894,7 +14890,7 @@
         <v>10388</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="24">
+    <row r="277" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
         <v>348</v>
       </c>
@@ -14918,7 +14914,7 @@
         <v>10121</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="36">
+    <row r="278" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>1426</v>
       </c>
@@ -14942,7 +14938,7 @@
         <v>11468</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="24">
+    <row r="279" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>1921</v>
       </c>
@@ -14966,7 +14962,7 @@
         <v>13574</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="24">
+    <row r="280" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>1695</v>
       </c>
@@ -14990,7 +14986,7 @@
         <v>13262</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="96">
+    <row r="281" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>351</v>
       </c>
@@ -15014,7 +15010,7 @@
         <v>10166</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="36">
+    <row r="282" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>1306</v>
       </c>
@@ -15038,7 +15034,7 @@
         <v>12771</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="24">
+    <row r="283" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>354</v>
       </c>
@@ -15062,7 +15058,7 @@
         <v>12494</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="24">
+    <row r="284" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>356</v>
       </c>
@@ -15086,7 +15082,7 @@
         <v>10282</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="48">
+    <row r="285" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>1139</v>
       </c>
@@ -15110,7 +15106,7 @@
         <v>11791</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="36">
+    <row r="286" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
         <v>361</v>
       </c>
@@ -15134,7 +15130,7 @@
         <v>10365</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="24">
+    <row r="287" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>2128</v>
       </c>
@@ -15158,7 +15154,7 @@
         <v>12992</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="36">
+    <row r="288" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>1091</v>
       </c>
@@ -15182,7 +15178,7 @@
         <v>12669</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="48">
+    <row r="289" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>304</v>
       </c>
@@ -15206,7 +15202,7 @@
         <v>11083</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="24">
+    <row r="290" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>983</v>
       </c>
@@ -15230,7 +15226,7 @@
         <v>10164</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="48">
+    <row r="291" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>1513</v>
       </c>
@@ -15254,7 +15250,7 @@
         <v>11182</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="24">
+    <row r="292" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>1996</v>
       </c>
@@ -15278,7 +15274,7 @@
         <v>13726</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="24">
+    <row r="293" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>307</v>
       </c>
@@ -15302,7 +15298,7 @@
         <v>11110</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="23">
+    <row r="294" spans="1:9" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="77" t="s">
         <v>2309</v>
       </c>
@@ -15326,7 +15322,7 @@
         <v>14104</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="36">
+    <row r="295" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>482</v>
       </c>
@@ -15350,7 +15346,7 @@
         <v>11287</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="36">
+    <row r="296" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>1489</v>
       </c>
@@ -15374,7 +15370,7 @@
         <v>10039</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="24">
+    <row r="297" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="12" t="s">
         <v>1324</v>
       </c>
@@ -15399,7 +15395,7 @@
       </c>
       <c r="I297" s="3"/>
     </row>
-    <row r="298" spans="1:9" ht="24">
+    <row r="298" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>486</v>
       </c>
@@ -15423,7 +15419,7 @@
         <v>10608</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="24">
+    <row r="299" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>488</v>
       </c>
@@ -15447,7 +15443,7 @@
         <v>11497</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="24">
+    <row r="300" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>490</v>
       </c>
@@ -15471,7 +15467,7 @@
         <v>10062</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="36">
+    <row r="301" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>2046</v>
       </c>
@@ -15495,7 +15491,7 @@
         <v>13846</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="24">
+    <row r="302" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>1709</v>
       </c>
@@ -15519,7 +15515,7 @@
         <v>13530</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="36">
+    <row r="303" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>2122</v>
       </c>
@@ -15543,7 +15539,7 @@
         <v>10097</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="36">
+    <row r="304" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>1523</v>
       </c>
@@ -15567,7 +15563,7 @@
         <v>10616</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="24">
+    <row r="305" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>495</v>
       </c>
@@ -15591,7 +15587,7 @@
         <v>11447</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="36">
+    <row r="306" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>1521</v>
       </c>
@@ -15615,7 +15611,7 @@
         <v>10176</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="120">
+    <row r="307" spans="1:8" ht="132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>498</v>
       </c>
@@ -15639,7 +15635,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="24">
+    <row r="308" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>500</v>
       </c>
@@ -15663,7 +15659,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="48">
+    <row r="309" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>2117</v>
       </c>
@@ -15687,7 +15683,7 @@
         <v>10141</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="48">
+    <row r="310" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>502</v>
       </c>
@@ -15711,7 +15707,7 @@
         <v>10187</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="24">
+    <row r="311" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>1637</v>
       </c>
@@ -15735,7 +15731,7 @@
         <v>11680</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="24">
+    <row r="312" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>505</v>
       </c>
@@ -15759,7 +15755,7 @@
         <v>10762</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="36">
+    <row r="313" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>507</v>
       </c>
@@ -15783,7 +15779,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="36">
+    <row r="314" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>510</v>
       </c>
@@ -15807,7 +15803,7 @@
         <v>11124</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="24">
+    <row r="315" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>979</v>
       </c>
@@ -15831,7 +15827,7 @@
         <v>12528</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="60">
+    <row r="316" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>512</v>
       </c>
@@ -15855,7 +15851,7 @@
         <v>10236</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="24">
+    <row r="317" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>1302</v>
       </c>
@@ -15879,7 +15875,7 @@
         <v>12764</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="36">
+    <row r="318" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>1648</v>
       </c>
@@ -15903,7 +15899,7 @@
         <v>10263</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="36">
+    <row r="319" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>518</v>
       </c>
@@ -15927,7 +15923,7 @@
         <v>10816</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="24">
+    <row r="320" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>520</v>
       </c>
@@ -15951,7 +15947,7 @@
         <v>11781</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="36">
+    <row r="321" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>1698</v>
       </c>
@@ -15975,7 +15971,7 @@
         <v>13122</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="48">
+    <row r="322" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
         <v>522</v>
       </c>
@@ -15999,7 +15995,7 @@
         <v>10295</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="36">
+    <row r="323" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>525</v>
       </c>
@@ -16023,7 +16019,7 @@
         <v>11448</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="36">
+    <row r="324" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>2124</v>
       </c>
@@ -16047,7 +16043,7 @@
         <v>10342</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="36">
+    <row r="325" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>2416</v>
       </c>
@@ -16071,7 +16067,7 @@
         <v>14128</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="36">
+    <row r="326" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>527</v>
       </c>
@@ -16095,7 +16091,7 @@
         <v>10325</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="36">
+    <row r="327" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>2114</v>
       </c>
@@ -16119,7 +16115,7 @@
         <v>12990</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="24">
+    <row r="328" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>530</v>
       </c>
@@ -16143,7 +16139,7 @@
         <v>10774</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="24">
+    <row r="329" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>952</v>
       </c>
@@ -16167,7 +16163,7 @@
         <v>10362</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="36">
+    <row r="330" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>532</v>
       </c>
@@ -16191,7 +16187,7 @@
         <v>10054</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="36">
+    <row r="331" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>534</v>
       </c>
@@ -16215,7 +16211,7 @@
         <v>11278</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="24">
+    <row r="332" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>536</v>
       </c>
@@ -16239,7 +16235,7 @@
         <v>11830</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="48">
+    <row r="333" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>365</v>
       </c>
@@ -16263,7 +16259,7 @@
         <v>11327</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="36">
+    <row r="334" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>367</v>
       </c>
@@ -16287,7 +16283,7 @@
         <v>10040</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="36">
+    <row r="335" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
         <v>1555</v>
       </c>
@@ -16311,7 +16307,7 @@
         <v>11579</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="48">
+    <row r="336" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
         <v>371</v>
       </c>
@@ -16335,7 +16331,7 @@
         <v>11626</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="48">
+    <row r="337" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
         <v>1965</v>
       </c>
@@ -16359,7 +16355,7 @@
         <v>11229</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="36">
+    <row r="338" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>1813</v>
       </c>
@@ -16383,7 +16379,7 @@
         <v>10116</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="48">
+    <row r="339" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>1060</v>
       </c>
@@ -16407,7 +16403,7 @@
         <v>11369</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="36">
+    <row r="340" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>1409</v>
       </c>
@@ -16431,7 +16427,7 @@
         <v>10065</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="48">
+    <row r="341" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>378</v>
       </c>
@@ -16455,7 +16451,7 @@
         <v>10748</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="48">
+    <row r="342" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>1391</v>
       </c>
@@ -16479,7 +16475,7 @@
         <v>10740</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="36">
+    <row r="343" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>2054</v>
       </c>
@@ -16503,7 +16499,7 @@
         <v>10603</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="60">
+    <row r="344" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>1967</v>
       </c>
@@ -16527,7 +16523,7 @@
         <v>10094</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="60">
+    <row r="345" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>1058</v>
       </c>
@@ -16551,7 +16547,7 @@
         <v>11257</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="36">
+    <row r="346" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>1382</v>
       </c>
@@ -16575,7 +16571,7 @@
         <v>12886</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="48">
+    <row r="347" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
         <v>388</v>
       </c>
@@ -16599,7 +16595,7 @@
         <v>11273</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="36">
+    <row r="348" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>390</v>
       </c>
@@ -16623,7 +16619,7 @@
         <v>10147</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="36">
+    <row r="349" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>391</v>
       </c>
@@ -16647,7 +16643,7 @@
         <v>12410</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="24">
+    <row r="350" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>962</v>
       </c>
@@ -16671,7 +16667,7 @@
         <v>11573</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="36">
+    <row r="351" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>395</v>
       </c>
@@ -16695,7 +16691,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="36">
+    <row r="352" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="12" t="s">
         <v>1722</v>
       </c>
@@ -16719,7 +16715,7 @@
         <v>11267</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="60">
+    <row r="353" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="79" t="s">
         <v>2314</v>
       </c>
@@ -16743,7 +16739,7 @@
         <v>10768</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="48">
+    <row r="354" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>399</v>
       </c>
@@ -16767,7 +16763,7 @@
         <v>10861</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="24">
+    <row r="355" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>401</v>
       </c>
@@ -16791,7 +16787,7 @@
         <v>10665</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="24">
+    <row r="356" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
         <v>1546</v>
       </c>
@@ -16815,7 +16811,7 @@
         <v>10229</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="24">
+    <row r="357" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>404</v>
       </c>
@@ -16839,7 +16835,7 @@
         <v>11127</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="24">
+    <row r="358" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
         <v>406</v>
       </c>
@@ -16863,7 +16859,7 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="36">
+    <row r="359" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>1179</v>
       </c>
@@ -16887,7 +16883,7 @@
         <v>12749</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="48">
+    <row r="360" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5" t="s">
         <v>1971</v>
       </c>
@@ -16911,7 +16907,7 @@
         <v>10847</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="51.65" customHeight="1">
+    <row r="361" spans="1:8" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>408</v>
       </c>
@@ -16935,7 +16931,7 @@
         <v>11599</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="48">
+    <row r="362" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="s">
         <v>1172</v>
       </c>
@@ -16959,7 +16955,7 @@
         <v>12726</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="48">
+    <row r="363" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>410</v>
       </c>
@@ -16983,7 +16979,7 @@
         <v>11601</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="36">
+    <row r="364" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>1089</v>
       </c>
@@ -17007,7 +17003,7 @@
         <v>12667</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="36">
+    <row r="365" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>1355</v>
       </c>
@@ -17031,7 +17027,7 @@
         <v>12851</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="48">
+    <row r="366" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>1465</v>
       </c>
@@ -17055,7 +17051,7 @@
         <v>12957</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="60">
+    <row r="367" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>414</v>
       </c>
@@ -17079,7 +17075,7 @@
         <v>10324</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="60">
+    <row r="368" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>1414</v>
       </c>
@@ -17103,7 +17099,7 @@
         <v>10338</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="36">
+    <row r="369" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="19" t="s">
         <v>1632</v>
       </c>
@@ -17127,7 +17123,7 @@
         <v>10901</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="72">
+    <row r="370" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>1806</v>
       </c>
@@ -17151,7 +17147,7 @@
         <v>10674</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="24">
+    <row r="371" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>1440</v>
       </c>
@@ -17175,7 +17171,7 @@
         <v>10938</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="24">
+    <row r="372" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>2064</v>
       </c>
@@ -17199,7 +17195,7 @@
         <v>13869</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="60">
+    <row r="373" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>420</v>
       </c>
@@ -17223,7 +17219,7 @@
         <v>10258</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="36">
+    <row r="374" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>1574</v>
       </c>
@@ -17247,7 +17243,7 @@
         <v>10340</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="24">
+    <row r="375" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>424</v>
       </c>
@@ -17271,7 +17267,7 @@
         <v>11551</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="24">
+    <row r="376" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
         <v>426</v>
       </c>
@@ -17295,7 +17291,7 @@
         <v>10046</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="72">
+    <row r="377" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
         <v>428</v>
       </c>
@@ -17319,7 +17315,7 @@
         <v>10060</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="24">
+    <row r="378" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>430</v>
       </c>
@@ -17343,7 +17339,7 @@
         <v>10106</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>433</v>
       </c>
@@ -17367,7 +17363,7 @@
         <v>10126</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="36">
+    <row r="380" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>1616</v>
       </c>
@@ -17391,7 +17387,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="381" spans="1:9" s="3" customFormat="1" ht="60">
+    <row r="381" spans="1:9" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>1130</v>
       </c>
@@ -17416,7 +17412,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="36">
+    <row r="382" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>2097</v>
       </c>
@@ -17440,7 +17436,7 @@
         <v>11866</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="60">
+    <row r="383" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>1646</v>
       </c>
@@ -17464,7 +17460,7 @@
         <v>10079</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="36">
+    <row r="384" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>1131</v>
       </c>
@@ -17488,7 +17484,7 @@
         <v>10082</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="24">
+    <row r="385" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>1075</v>
       </c>
@@ -17512,7 +17508,7 @@
         <v>12615</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>440</v>
       </c>
@@ -17536,7 +17532,7 @@
         <v>11607</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="36">
+    <row r="387" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>1121</v>
       </c>
@@ -17560,7 +17556,7 @@
         <v>12723</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="36">
+    <row r="388" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
         <v>442</v>
       </c>
@@ -17584,7 +17580,7 @@
         <v>12412</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="48">
+    <row r="389" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>444</v>
       </c>
@@ -17608,7 +17604,7 @@
         <v>11696</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="48">
+    <row r="390" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
         <v>2106</v>
       </c>
@@ -17632,7 +17628,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="36">
+    <row r="391" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>2059</v>
       </c>
@@ -17656,7 +17652,7 @@
         <v>12392</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="36">
+    <row r="392" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>448</v>
       </c>
@@ -17680,7 +17676,7 @@
         <v>11307</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="24">
+    <row r="393" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>450</v>
       </c>
@@ -17704,7 +17700,7 @@
         <v>11294</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="36">
+    <row r="394" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
         <v>1341</v>
       </c>
@@ -17728,7 +17724,7 @@
         <v>10651</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="48">
+    <row r="395" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>2104</v>
       </c>
@@ -17752,7 +17748,7 @@
         <v>10179</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="48">
+    <row r="396" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
         <v>453</v>
       </c>
@@ -17776,7 +17772,7 @@
         <v>10988</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="60">
+    <row r="397" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>1486</v>
       </c>
@@ -17800,7 +17796,7 @@
         <v>10776</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="24">
+    <row r="398" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>456</v>
       </c>
@@ -17824,7 +17820,7 @@
         <v>10980</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="60">
+    <row r="399" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>1477</v>
       </c>
@@ -17848,7 +17844,7 @@
         <v>10261</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="60">
+    <row r="400" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
         <v>1704</v>
       </c>
@@ -17872,7 +17868,7 @@
         <v>10330</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="48">
+    <row r="401" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>1542</v>
       </c>
@@ -17896,7 +17892,7 @@
         <v>12993</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="36">
+    <row r="402" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>460</v>
       </c>
@@ -17920,7 +17916,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="36">
+    <row r="403" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>1072</v>
       </c>
@@ -17944,7 +17940,7 @@
         <v>10305</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="36">
+    <row r="404" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>1537</v>
       </c>
@@ -17968,7 +17964,7 @@
         <v>10264</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="24">
+    <row r="405" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="11" t="s">
         <v>1141</v>
       </c>
@@ -17992,7 +17988,7 @@
         <v>11610</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="24">
+    <row r="406" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>1460</v>
       </c>
@@ -18016,7 +18012,7 @@
         <v>10326</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="48">
+    <row r="407" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>467</v>
       </c>
@@ -18040,7 +18036,7 @@
         <v>10327</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="24">
+    <row r="408" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>2111</v>
       </c>
@@ -18064,7 +18060,7 @@
         <v>14048</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="36">
+    <row r="409" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>1613</v>
       </c>
@@ -18088,7 +18084,7 @@
         <v>11450</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="48">
+    <row r="410" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>1457</v>
       </c>
@@ -18112,7 +18108,7 @@
         <v>10760</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="36">
+    <row r="411" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>471</v>
       </c>
@@ -18136,7 +18132,7 @@
         <v>10791</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="48">
+    <row r="412" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>473</v>
       </c>
@@ -18160,7 +18156,7 @@
         <v>11408</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="36">
+    <row r="413" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>475</v>
       </c>
@@ -18184,7 +18180,7 @@
         <v>10267</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="84">
+    <row r="414" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>478</v>
       </c>
@@ -18208,7 +18204,7 @@
         <v>11293</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="36">
+    <row r="415" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>2180</v>
       </c>
@@ -18232,7 +18228,7 @@
         <v>14060</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="36">
+    <row r="416" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>579</v>
       </c>
@@ -18256,7 +18252,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="24">
+    <row r="417" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>2183</v>
       </c>
@@ -18280,7 +18276,7 @@
         <v>14066</v>
       </c>
     </row>
-    <row r="418" spans="1:9" s="71" customFormat="1" ht="60">
+    <row r="418" spans="1:9" s="71" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
         <v>1694</v>
       </c>
@@ -18305,7 +18301,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" ht="24">
+    <row r="419" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5" t="s">
         <v>583</v>
       </c>
@@ -18329,7 +18325,7 @@
         <v>11868</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="60">
+    <row r="420" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="s">
         <v>585</v>
       </c>
@@ -18353,7 +18349,7 @@
         <v>11684</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="48">
+    <row r="421" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
         <v>587</v>
       </c>
@@ -18377,7 +18373,7 @@
         <v>10318</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="24">
+    <row r="422" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="s">
         <v>590</v>
       </c>
@@ -18401,7 +18397,7 @@
         <v>10368</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="36">
+    <row r="423" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
         <v>2419</v>
       </c>
@@ -18425,7 +18421,7 @@
         <v>14129</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="24">
+    <row r="424" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>1005</v>
       </c>
@@ -18449,7 +18445,7 @@
         <v>11767</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="36">
+    <row r="425" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>1623</v>
       </c>
@@ -18473,7 +18469,7 @@
         <v>10027</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="48">
+    <row r="426" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>1638</v>
       </c>
@@ -18497,7 +18493,7 @@
         <v>10028</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="24">
+    <row r="427" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>2166</v>
       </c>
@@ -18521,7 +18517,7 @@
         <v>13977</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="36">
+    <row r="428" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>1300</v>
       </c>
@@ -18546,7 +18542,7 @@
       </c>
       <c r="I428" s="71"/>
     </row>
-    <row r="429" spans="1:9" ht="24">
+    <row r="429" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>544</v>
       </c>
@@ -18570,7 +18566,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="36">
+    <row r="430" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>1605</v>
       </c>
@@ -18594,7 +18590,7 @@
         <v>13046</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="36">
+    <row r="431" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>1512</v>
       </c>
@@ -18618,7 +18614,7 @@
         <v>10456</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="36">
+    <row r="432" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>548</v>
       </c>
@@ -18642,7 +18638,7 @@
         <v>11368</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="24">
+    <row r="433" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="s">
         <v>975</v>
       </c>
@@ -18666,7 +18662,7 @@
         <v>12518</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="24">
+    <row r="434" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>551</v>
       </c>
@@ -18690,7 +18686,7 @@
         <v>11845</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="60">
+    <row r="435" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
         <v>1003</v>
       </c>
@@ -18714,7 +18710,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="24">
+    <row r="436" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>555</v>
       </c>
@@ -18738,7 +18734,7 @@
         <v>11591</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="72">
+    <row r="437" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>1366</v>
       </c>
@@ -18762,7 +18758,7 @@
         <v>11401</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="24">
+    <row r="438" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>558</v>
       </c>
@@ -18786,7 +18782,7 @@
         <v>10230</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="36">
+    <row r="439" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>1364</v>
       </c>
@@ -18810,7 +18806,7 @@
         <v>12880</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="48">
+    <row r="440" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>560</v>
       </c>
@@ -18834,7 +18830,7 @@
         <v>11402</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="60">
+    <row r="441" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>562</v>
       </c>
@@ -18858,7 +18854,7 @@
         <v>11130</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="36">
+    <row r="442" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>564</v>
       </c>
@@ -18882,7 +18878,7 @@
         <v>10298</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="36">
+    <row r="443" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
         <v>566</v>
       </c>
@@ -18906,7 +18902,7 @@
         <v>11552</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="36">
+    <row r="444" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
         <v>1584</v>
       </c>
@@ -18930,7 +18926,7 @@
         <v>13026</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="23">
+    <row r="445" spans="1:8" ht="27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="77" t="s">
         <v>2306</v>
       </c>
@@ -18954,7 +18950,7 @@
         <v>14103</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="24">
+    <row r="446" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1362</v>
       </c>
@@ -18978,7 +18974,7 @@
         <v>12849</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="48">
+    <row r="447" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
         <v>1522</v>
       </c>
@@ -19002,7 +18998,7 @@
         <v>10778</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="24">
+    <row r="448" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
         <v>570</v>
       </c>
@@ -19026,7 +19022,7 @@
         <v>10965</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>573</v>
       </c>
@@ -19050,7 +19046,7 @@
         <v>10366</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="48">
+    <row r="450" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>575</v>
       </c>
@@ -19074,7 +19070,7 @@
         <v>14047</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="24">
+    <row r="451" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>1112</v>
       </c>
@@ -19098,7 +19094,7 @@
         <v>12718</v>
       </c>
     </row>
-    <row r="452" spans="1:9" s="3" customFormat="1" ht="36">
+    <row r="452" spans="1:9" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="21" t="s">
         <v>1991</v>
       </c>
@@ -19123,7 +19119,7 @@
       </c>
       <c r="I452" s="16"/>
     </row>
-    <row r="453" spans="1:9" ht="24">
+    <row r="453" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>620</v>
       </c>
@@ -19147,7 +19143,7 @@
         <v>10019</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="24">
+    <row r="454" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>1008</v>
       </c>
@@ -19171,7 +19167,7 @@
         <v>11340</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="36">
+    <row r="455" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>2285</v>
       </c>
@@ -19195,7 +19191,7 @@
         <v>10077</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="36">
+    <row r="456" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
         <v>623</v>
       </c>
@@ -19222,7 +19218,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="48">
+    <row r="457" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>625</v>
       </c>
@@ -19246,7 +19242,7 @@
         <v>10367</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="36">
+    <row r="458" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>1071</v>
       </c>
@@ -19270,7 +19266,7 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="24">
+    <row r="459" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>987</v>
       </c>
@@ -19294,7 +19290,7 @@
         <v>12540</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="24">
+    <row r="460" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9" t="s">
         <v>1327</v>
       </c>
@@ -19319,7 +19315,7 @@
       </c>
       <c r="I460" s="3"/>
     </row>
-    <row r="461" spans="1:9" ht="24">
+    <row r="461" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>1308</v>
       </c>
@@ -19343,7 +19339,7 @@
         <v>12760</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="48">
+    <row r="462" spans="1:9" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5" t="s">
         <v>629</v>
       </c>
@@ -19367,7 +19363,7 @@
         <v>10174</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="36">
+    <row r="463" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>630</v>
       </c>
@@ -19391,7 +19387,7 @@
         <v>10255</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="36">
+    <row r="464" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>632</v>
       </c>
@@ -19415,7 +19411,7 @@
         <v>11547</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="36">
+    <row r="465" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="19" t="s">
         <v>1334</v>
       </c>
@@ -19439,7 +19435,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="24">
+    <row r="466" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
         <v>1379</v>
       </c>
@@ -19463,7 +19459,7 @@
         <v>11261</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="24">
+    <row r="467" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
         <v>636</v>
       </c>
@@ -19487,7 +19483,7 @@
         <v>11528</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="36">
+    <row r="468" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>2041</v>
       </c>
@@ -19511,7 +19507,7 @@
         <v>10232</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="36">
+    <row r="469" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>2033</v>
       </c>
@@ -19535,7 +19531,7 @@
         <v>13848</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="24">
+    <row r="470" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>1065</v>
       </c>
@@ -19559,7 +19555,7 @@
         <v>12565</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="36">
+    <row r="471" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>2189</v>
       </c>
@@ -19583,7 +19579,7 @@
         <v>14061</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="24">
+    <row r="472" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="12" t="s">
         <v>1143</v>
       </c>
@@ -19607,7 +19603,7 @@
         <v>10205</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="24">
+    <row r="473" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>595</v>
       </c>
@@ -19631,7 +19627,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="36">
+    <row r="474" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>1553</v>
       </c>
@@ -19655,7 +19651,7 @@
         <v>10155</v>
       </c>
     </row>
-    <row r="475" spans="1:9" s="3" customFormat="1" ht="36">
+    <row r="475" spans="1:9" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>599</v>
       </c>
@@ -19680,7 +19676,7 @@
       </c>
       <c r="I475" s="16"/>
     </row>
-    <row r="476" spans="1:9" ht="36">
+    <row r="476" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>1007</v>
       </c>
@@ -19704,7 +19700,7 @@
         <v>10184</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="24">
+    <row r="477" spans="1:9" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>1968</v>
       </c>
@@ -19728,7 +19724,7 @@
         <v>10659</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="24">
+    <row r="478" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>605</v>
       </c>
@@ -19752,7 +19748,7 @@
         <v>12448</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="36">
+    <row r="479" spans="1:9" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
         <v>608</v>
       </c>
@@ -19776,7 +19772,7 @@
         <v>13019</v>
       </c>
     </row>
-    <row r="480" spans="1:9" s="3" customFormat="1" ht="36">
+    <row r="480" spans="1:9" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="21" t="s">
         <v>1993</v>
       </c>
@@ -19801,7 +19797,7 @@
       </c>
       <c r="I480" s="16"/>
     </row>
-    <row r="481" spans="1:8" ht="24">
+    <row r="481" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>611</v>
       </c>
@@ -19825,7 +19821,7 @@
         <v>10917</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="84">
+    <row r="482" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5" t="s">
         <v>1395</v>
       </c>
@@ -19849,7 +19845,7 @@
         <v>11303</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="36">
+    <row r="483" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>1142</v>
       </c>
@@ -19873,7 +19869,7 @@
         <v>12632</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="24">
+    <row r="484" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>1928</v>
       </c>
@@ -19897,7 +19893,7 @@
         <v>11363</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="24">
+    <row r="485" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>1949</v>
       </c>
@@ -19921,7 +19917,7 @@
         <v>13606</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="36">
+    <row r="486" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>1353</v>
       </c>
@@ -19945,7 +19941,7 @@
         <v>12829</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="36">
+    <row r="487" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>1126</v>
       </c>
@@ -19969,7 +19965,7 @@
         <v>12724</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="36">
+    <row r="488" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>2322</v>
       </c>
@@ -19993,7 +19989,7 @@
         <v>11411</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="36">
+    <row r="489" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>997</v>
       </c>
@@ -20017,7 +20013,7 @@
         <v>10929</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="24">
+    <row r="490" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>645</v>
       </c>
@@ -20041,7 +20037,7 @@
         <v>11524</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="24">
+    <row r="491" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>648</v>
       </c>
@@ -20065,7 +20061,7 @@
         <v>10320</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="60">
+    <row r="492" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>650</v>
       </c>
@@ -20089,7 +20085,7 @@
         <v>11230</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="24">
+    <row r="493" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="83" t="s">
         <v>2335</v>
       </c>
@@ -20113,7 +20109,7 @@
         <v>14121</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="36">
+    <row r="494" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="20" t="s">
         <v>1526</v>
       </c>
@@ -20137,7 +20133,7 @@
         <v>12975</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="36">
+    <row r="495" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>653</v>
       </c>
@@ -20161,7 +20157,7 @@
         <v>10157</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="24">
+    <row r="496" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>655</v>
       </c>
@@ -20185,7 +20181,7 @@
         <v>10728</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="36">
+    <row r="497" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>657</v>
       </c>
@@ -20209,7 +20205,7 @@
         <v>11463</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="24">
+    <row r="498" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>1080</v>
       </c>
@@ -20233,7 +20229,7 @@
         <v>12635</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="36">
+    <row r="499" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>659</v>
       </c>
@@ -20257,7 +20253,7 @@
         <v>11437</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="24">
+    <row r="500" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>998</v>
       </c>
@@ -20281,7 +20277,7 @@
         <v>10345</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="48">
+    <row r="501" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>1929</v>
       </c>
@@ -20305,7 +20301,7 @@
         <v>10772</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="36">
+    <row r="502" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>954</v>
       </c>
@@ -20329,7 +20325,7 @@
         <v>10037</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="36">
+    <row r="503" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>1346</v>
       </c>
@@ -20353,7 +20349,7 @@
         <v>12814</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="24">
+    <row r="504" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>665</v>
       </c>
@@ -20377,7 +20373,7 @@
         <v>11522</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="36">
+    <row r="505" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>1620</v>
       </c>
@@ -20401,7 +20397,7 @@
         <v>13059</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="36">
+    <row r="506" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>1119</v>
       </c>
@@ -20425,7 +20421,7 @@
         <v>12717</v>
       </c>
     </row>
-    <row r="507" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="507" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>1454</v>
       </c>
@@ -20449,7 +20445,7 @@
         <v>12942</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="36">
+    <row r="508" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>667</v>
       </c>
@@ -20473,7 +20469,7 @@
         <v>10288</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="36">
+    <row r="509" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>669</v>
       </c>
@@ -20497,7 +20493,7 @@
         <v>11798</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="36">
+    <row r="510" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
         <v>671</v>
       </c>
@@ -20521,7 +20517,7 @@
         <v>11594</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="24">
+    <row r="511" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>1458</v>
       </c>
@@ -20545,7 +20541,7 @@
         <v>10369</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="36">
+    <row r="512" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>1524</v>
       </c>
@@ -20569,7 +20565,7 @@
         <v>12982</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="24">
+    <row r="513" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>677</v>
       </c>
@@ -20593,7 +20589,7 @@
         <v>10818</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="36">
+    <row r="514" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>678</v>
       </c>
@@ -20617,7 +20613,7 @@
         <v>11070</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="24">
+    <row r="515" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>681</v>
       </c>
@@ -20641,7 +20637,7 @@
         <v>10817</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="24">
+    <row r="516" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>683</v>
       </c>
@@ -20665,7 +20661,7 @@
         <v>11288</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="36">
+    <row r="517" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>1425</v>
       </c>
@@ -20689,7 +20685,7 @@
         <v>10281</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="36">
+    <row r="518" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>686</v>
       </c>
@@ -20713,7 +20709,7 @@
         <v>10363</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="36">
+    <row r="519" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>689</v>
       </c>
@@ -20737,7 +20733,7 @@
         <v>10771</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="24">
+    <row r="520" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
         <v>1133</v>
       </c>
@@ -20761,7 +20757,7 @@
         <v>12703</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="24">
+    <row r="521" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="4" t="s">
         <v>1598</v>
       </c>
@@ -20785,7 +20781,7 @@
         <v>13041</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="48">
+    <row r="522" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>691</v>
       </c>
@@ -20809,7 +20805,7 @@
         <v>10117</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="48">
+    <row r="523" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>693</v>
       </c>
@@ -20833,7 +20829,7 @@
         <v>10118</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="36">
+    <row r="524" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>695</v>
       </c>
@@ -20857,7 +20853,7 @@
         <v>10711</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="36">
+    <row r="525" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>697</v>
       </c>
@@ -20881,7 +20877,7 @@
         <v>10120</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="36">
+    <row r="526" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>699</v>
       </c>
@@ -20905,7 +20901,7 @@
         <v>10125</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="24">
+    <row r="527" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>1422</v>
       </c>
@@ -20929,7 +20925,7 @@
         <v>11568</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="24">
+    <row r="528" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>1421</v>
       </c>
@@ -20953,7 +20949,7 @@
         <v>10067</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="36">
+    <row r="529" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>1973</v>
       </c>
@@ -20977,7 +20973,7 @@
         <v>13656</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="72">
+    <row r="530" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>705</v>
       </c>
@@ -21001,7 +20997,7 @@
         <v>10185</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="24">
+    <row r="531" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>708</v>
       </c>
@@ -21025,7 +21021,7 @@
         <v>11335</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="24">
+    <row r="532" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>710</v>
       </c>
@@ -21049,7 +21045,7 @@
         <v>10268</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="24">
+    <row r="533" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>1581</v>
       </c>
@@ -21073,7 +21069,7 @@
         <v>13017</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="36">
+    <row r="534" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
         <v>955</v>
       </c>
@@ -21097,7 +21093,7 @@
         <v>10292</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="36">
+    <row r="535" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>957</v>
       </c>
@@ -21121,7 +21117,7 @@
         <v>10348</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="24">
+    <row r="536" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
         <v>716</v>
       </c>
@@ -21145,7 +21141,7 @@
         <v>11482</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="48">
+    <row r="537" spans="1:8" ht="60" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
         <v>1635</v>
       </c>
@@ -21169,7 +21165,7 @@
         <v>13073</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="36">
+    <row r="538" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>1999</v>
       </c>
@@ -21193,7 +21189,7 @@
         <v>13767</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="24">
+    <row r="539" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>721</v>
       </c>
@@ -21217,7 +21213,7 @@
         <v>10105</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="24">
+    <row r="540" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>723</v>
       </c>
@@ -21241,7 +21237,7 @@
         <v>10724</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="24">
+    <row r="541" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
         <v>1370</v>
       </c>
@@ -21265,7 +21261,7 @@
         <v>12888</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="36">
+    <row r="542" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>727</v>
       </c>
@@ -21289,7 +21285,7 @@
         <v>10128</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="36">
+    <row r="543" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>728</v>
       </c>
@@ -21313,7 +21309,7 @@
         <v>10064</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="24">
+    <row r="544" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>731</v>
       </c>
@@ -21337,7 +21333,7 @@
         <v>10686</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="24">
+    <row r="545" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>733</v>
       </c>
@@ -21361,7 +21357,7 @@
         <v>11681</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="48">
+    <row r="546" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>734</v>
       </c>
@@ -21385,7 +21381,7 @@
         <v>11345</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="36">
+    <row r="547" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>736</v>
       </c>
@@ -21409,7 +21405,7 @@
         <v>10252</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="36">
+    <row r="548" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
         <v>2071</v>
       </c>
@@ -21433,7 +21429,7 @@
         <v>10285</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>2171</v>
       </c>
@@ -21457,7 +21453,7 @@
         <v>14025</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="24">
+    <row r="550" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>741</v>
       </c>
@@ -21481,7 +21477,7 @@
         <v>10676</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="36">
+    <row r="551" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
         <v>743</v>
       </c>
@@ -21505,7 +21501,7 @@
         <v>11750</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="24">
+    <row r="552" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>744</v>
       </c>
@@ -21529,7 +21525,7 @@
         <v>12923</v>
       </c>
     </row>
-    <row r="553" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="553" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>747</v>
       </c>
@@ -21553,7 +21549,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="554" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="554" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>1451</v>
       </c>
@@ -21577,7 +21573,7 @@
         <v>12940</v>
       </c>
     </row>
-    <row r="555" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="555" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>1061</v>
       </c>
@@ -21601,7 +21597,7 @@
         <v>10680</v>
       </c>
     </row>
-    <row r="556" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="556" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>750</v>
       </c>
@@ -21625,7 +21621,7 @@
         <v>10398</v>
       </c>
     </row>
-    <row r="557" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="557" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>1277</v>
       </c>
@@ -21649,7 +21645,7 @@
         <v>10393</v>
       </c>
     </row>
-    <row r="558" spans="1:8" s="3" customFormat="1">
+    <row r="558" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1312</v>
       </c>
@@ -21673,7 +21669,7 @@
         <v>10399</v>
       </c>
     </row>
-    <row r="559" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="559" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>754</v>
       </c>
@@ -21697,7 +21693,7 @@
         <v>11672</v>
       </c>
     </row>
-    <row r="560" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="560" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1105</v>
       </c>
@@ -21721,7 +21717,7 @@
         <v>12687</v>
       </c>
     </row>
-    <row r="561" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="561" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>1188</v>
       </c>
@@ -21745,7 +21741,7 @@
         <v>10670</v>
       </c>
     </row>
-    <row r="562" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="562" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1677</v>
       </c>
@@ -21769,7 +21765,7 @@
         <v>11865</v>
       </c>
     </row>
-    <row r="563" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="563" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>2084</v>
       </c>
@@ -21793,7 +21789,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="564" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="564" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>2002</v>
       </c>
@@ -21817,7 +21813,7 @@
         <v>13791</v>
       </c>
     </row>
-    <row r="565" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="565" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>759</v>
       </c>
@@ -21841,7 +21837,7 @@
         <v>10260</v>
       </c>
     </row>
-    <row r="566" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="566" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>763</v>
       </c>
@@ -21865,7 +21861,7 @@
         <v>11365</v>
       </c>
     </row>
-    <row r="567" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="567" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>1190</v>
       </c>
@@ -21889,7 +21885,7 @@
         <v>11646</v>
       </c>
     </row>
-    <row r="568" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="568" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>769</v>
       </c>
@@ -21913,7 +21909,7 @@
         <v>11366</v>
       </c>
     </row>
-    <row r="569" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="569" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>2163</v>
       </c>
@@ -21937,7 +21933,7 @@
         <v>13990</v>
       </c>
     </row>
-    <row r="570" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="570" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>1193</v>
       </c>
@@ -21961,7 +21957,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="571" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="571" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>775</v>
       </c>
@@ -21985,7 +21981,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="572" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="572" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>777</v>
       </c>
@@ -22009,7 +22005,7 @@
         <v>10976</v>
       </c>
     </row>
-    <row r="573" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="573" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>779</v>
       </c>
@@ -22033,7 +22029,7 @@
         <v>10045</v>
       </c>
     </row>
-    <row r="574" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="574" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1578</v>
       </c>
@@ -22057,7 +22053,7 @@
         <v>13028</v>
       </c>
     </row>
-    <row r="575" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="575" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>783</v>
       </c>
@@ -22081,7 +22077,7 @@
         <v>11342</v>
       </c>
     </row>
-    <row r="576" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="576" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>787</v>
       </c>
@@ -22105,7 +22101,7 @@
         <v>11759</v>
       </c>
     </row>
-    <row r="577" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="577" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>789</v>
       </c>
@@ -22129,7 +22125,7 @@
         <v>11266</v>
       </c>
     </row>
-    <row r="578" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="578" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>2037</v>
       </c>
@@ -22153,7 +22149,7 @@
         <v>13843</v>
       </c>
     </row>
-    <row r="579" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="579" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>793</v>
       </c>
@@ -22177,7 +22173,7 @@
         <v>10834</v>
       </c>
     </row>
-    <row r="580" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="580" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1468</v>
       </c>
@@ -22201,7 +22197,7 @@
         <v>12952</v>
       </c>
     </row>
-    <row r="581" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="581" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>1345</v>
       </c>
@@ -22225,7 +22221,7 @@
         <v>12823</v>
       </c>
     </row>
-    <row r="582" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="582" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>1471</v>
       </c>
@@ -22249,7 +22245,7 @@
         <v>12947</v>
       </c>
     </row>
-    <row r="583" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="583" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>1476</v>
       </c>
@@ -22273,7 +22269,7 @@
         <v>12934</v>
       </c>
     </row>
-    <row r="584" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="584" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1462</v>
       </c>
@@ -22297,7 +22293,7 @@
         <v>12948</v>
       </c>
     </row>
-    <row r="585" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="585" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>797</v>
       </c>
@@ -22321,7 +22317,7 @@
         <v>11343</v>
       </c>
     </row>
-    <row r="586" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="586" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1278</v>
       </c>
@@ -22345,7 +22341,7 @@
         <v>10630</v>
       </c>
     </row>
-    <row r="587" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="587" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>1064</v>
       </c>
@@ -22369,7 +22365,7 @@
         <v>12571</v>
       </c>
     </row>
-    <row r="588" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="588" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>2087</v>
       </c>
@@ -22393,7 +22389,7 @@
         <v>13890</v>
       </c>
     </row>
-    <row r="589" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="589" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>2089</v>
       </c>
@@ -22417,7 +22413,7 @@
         <v>13893</v>
       </c>
     </row>
-    <row r="590" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="590" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>802</v>
       </c>
@@ -22441,7 +22437,7 @@
         <v>10056</v>
       </c>
     </row>
-    <row r="591" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="591" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>1664</v>
       </c>
@@ -22465,7 +22461,7 @@
         <v>10057</v>
       </c>
     </row>
-    <row r="592" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="592" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1279</v>
       </c>
@@ -22489,7 +22485,7 @@
         <v>10853</v>
       </c>
     </row>
-    <row r="593" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="593" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>1280</v>
       </c>
@@ -22513,7 +22509,7 @@
         <v>10055</v>
       </c>
     </row>
-    <row r="594" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="594" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1203</v>
       </c>
@@ -22537,7 +22533,7 @@
         <v>10186</v>
       </c>
     </row>
-    <row r="595" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="595" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>806</v>
       </c>
@@ -22561,7 +22557,7 @@
         <v>10197</v>
       </c>
     </row>
-    <row r="596" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="596" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1976</v>
       </c>
@@ -22585,7 +22581,7 @@
         <v>13672</v>
       </c>
     </row>
-    <row r="597" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="597" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>2177</v>
       </c>
@@ -22609,7 +22605,7 @@
         <v>14049</v>
       </c>
     </row>
-    <row r="598" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="598" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1281</v>
       </c>
@@ -22633,7 +22629,7 @@
         <v>10831</v>
       </c>
     </row>
-    <row r="599" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="599" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>1282</v>
       </c>
@@ -22657,7 +22653,7 @@
         <v>10618</v>
       </c>
     </row>
-    <row r="600" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="600" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1283</v>
       </c>
@@ -22681,7 +22677,7 @@
         <v>10226</v>
       </c>
     </row>
-    <row r="601" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="601" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>810</v>
       </c>
@@ -22705,7 +22701,7 @@
         <v>10726</v>
       </c>
     </row>
-    <row r="602" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="602" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>813</v>
       </c>
@@ -22729,7 +22725,7 @@
         <v>10156</v>
       </c>
     </row>
-    <row r="603" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="603" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>1665</v>
       </c>
@@ -22753,7 +22749,7 @@
         <v>10221</v>
       </c>
     </row>
-    <row r="604" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="604" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1684</v>
       </c>
@@ -22777,7 +22773,7 @@
         <v>10217</v>
       </c>
     </row>
-    <row r="605" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="605" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>819</v>
       </c>
@@ -22801,7 +22797,7 @@
         <v>10228</v>
       </c>
     </row>
-    <row r="606" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="606" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>821</v>
       </c>
@@ -22825,7 +22821,7 @@
         <v>12444</v>
       </c>
     </row>
-    <row r="607" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="607" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>822</v>
       </c>
@@ -22849,7 +22845,7 @@
         <v>10347</v>
       </c>
     </row>
-    <row r="608" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="608" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1467</v>
       </c>
@@ -22873,7 +22869,7 @@
         <v>12953</v>
       </c>
     </row>
-    <row r="609" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="609" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>1284</v>
       </c>
@@ -22897,7 +22893,7 @@
         <v>12593</v>
       </c>
     </row>
-    <row r="610" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="610" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>825</v>
       </c>
@@ -22921,7 +22917,7 @@
         <v>10143</v>
       </c>
     </row>
-    <row r="611" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="611" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>1285</v>
       </c>
@@ -22945,7 +22941,7 @@
         <v>10131</v>
       </c>
     </row>
-    <row r="612" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="612" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>2162</v>
       </c>
@@ -22969,7 +22965,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="613" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="613" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>1210</v>
       </c>
@@ -22993,7 +22989,7 @@
         <v>11741</v>
       </c>
     </row>
-    <row r="614" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="614" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>1211</v>
       </c>
@@ -23017,7 +23013,7 @@
         <v>10142</v>
       </c>
     </row>
-    <row r="615" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="615" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>830</v>
       </c>
@@ -23041,7 +23037,7 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="616" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="616" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>1600</v>
       </c>
@@ -23065,7 +23061,7 @@
         <v>13035</v>
       </c>
     </row>
-    <row r="617" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="617" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>833</v>
       </c>
@@ -23089,7 +23085,7 @@
         <v>11778</v>
       </c>
     </row>
-    <row r="618" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="618" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1286</v>
       </c>
@@ -23113,7 +23109,7 @@
         <v>10755</v>
       </c>
     </row>
-    <row r="619" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="619" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>1361</v>
       </c>
@@ -23137,7 +23133,7 @@
         <v>10736</v>
       </c>
     </row>
-    <row r="620" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="620" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>2118</v>
       </c>
@@ -23161,7 +23157,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="621" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="621" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>837</v>
       </c>
@@ -23185,7 +23181,7 @@
         <v>10990</v>
       </c>
     </row>
-    <row r="622" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="622" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1287</v>
       </c>
@@ -23209,7 +23205,7 @@
         <v>11489</v>
       </c>
     </row>
-    <row r="623" spans="1:8" s="3" customFormat="1">
+    <row r="623" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>840</v>
       </c>
@@ -23233,7 +23229,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="624" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="624" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>843</v>
       </c>
@@ -23257,7 +23253,7 @@
         <v>10306</v>
       </c>
     </row>
-    <row r="625" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="625" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>1288</v>
       </c>
@@ -23281,7 +23277,7 @@
         <v>12744</v>
       </c>
     </row>
-    <row r="626" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="626" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1289</v>
       </c>
@@ -23305,7 +23301,7 @@
         <v>10329</v>
       </c>
     </row>
-    <row r="627" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="627" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>1042</v>
       </c>
@@ -23329,7 +23325,7 @@
         <v>11535</v>
       </c>
     </row>
-    <row r="628" spans="1:8" s="3" customFormat="1">
+    <row r="628" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>1666</v>
       </c>
@@ -23353,7 +23349,7 @@
         <v>12681</v>
       </c>
     </row>
-    <row r="629" spans="1:8" s="3" customFormat="1" ht="12.65" customHeight="1">
+    <row r="629" spans="1:8" s="3" customFormat="1" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="19" t="s">
         <v>1331</v>
       </c>
@@ -23377,7 +23373,7 @@
         <v>12782</v>
       </c>
     </row>
-    <row r="630" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="630" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>849</v>
       </c>
@@ -23401,7 +23397,7 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="631" spans="1:8" s="3" customFormat="1" ht="60">
+    <row r="631" spans="1:8" s="3" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>2213</v>
       </c>
@@ -23425,7 +23421,7 @@
         <v>11498</v>
       </c>
     </row>
-    <row r="632" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="632" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>853</v>
       </c>
@@ -23449,7 +23445,7 @@
         <v>11786</v>
       </c>
     </row>
-    <row r="633" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="633" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>2152</v>
       </c>
@@ -23473,7 +23469,7 @@
         <v>13968</v>
       </c>
     </row>
-    <row r="634" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="634" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>2155</v>
       </c>
@@ -23497,7 +23493,7 @@
         <v>13955</v>
       </c>
     </row>
-    <row r="635" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="635" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>854</v>
       </c>
@@ -23521,7 +23517,7 @@
         <v>11856</v>
       </c>
     </row>
-    <row r="636" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="636" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>855</v>
       </c>
@@ -23545,7 +23541,7 @@
         <v>12467</v>
       </c>
     </row>
-    <row r="637" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="637" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>858</v>
       </c>
@@ -23569,7 +23565,7 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="638" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="638" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>1667</v>
       </c>
@@ -23593,7 +23589,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="639" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="639" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>1290</v>
       </c>
@@ -23617,7 +23613,7 @@
         <v>10214</v>
       </c>
     </row>
-    <row r="640" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="640" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>862</v>
       </c>
@@ -23641,7 +23637,7 @@
         <v>11736</v>
       </c>
     </row>
-    <row r="641" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="641" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>863</v>
       </c>
@@ -23665,7 +23661,7 @@
         <v>11112</v>
       </c>
     </row>
-    <row r="642" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="642" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>865</v>
       </c>
@@ -23689,7 +23685,7 @@
         <v>10287</v>
       </c>
     </row>
-    <row r="643" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="643" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>961</v>
       </c>
@@ -23713,7 +23709,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="644" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="644" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>1291</v>
       </c>
@@ -23737,7 +23733,7 @@
         <v>10364</v>
       </c>
     </row>
-    <row r="645" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="645" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>1292</v>
       </c>
@@ -23761,7 +23757,7 @@
         <v>10150</v>
       </c>
     </row>
-    <row r="646" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="646" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>1293</v>
       </c>
@@ -23785,7 +23781,7 @@
         <v>11755</v>
       </c>
     </row>
-    <row r="647" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="647" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>1552</v>
       </c>
@@ -23809,7 +23805,7 @@
         <v>11661</v>
       </c>
     </row>
-    <row r="648" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="648" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>870</v>
       </c>
@@ -23833,7 +23829,7 @@
         <v>10099</v>
       </c>
     </row>
-    <row r="649" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="649" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>871</v>
       </c>
@@ -23857,7 +23853,7 @@
         <v>11355</v>
       </c>
     </row>
-    <row r="650" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="650" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>877</v>
       </c>
@@ -23881,7 +23877,7 @@
         <v>12496</v>
       </c>
     </row>
-    <row r="651" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="651" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>874</v>
       </c>
@@ -23905,7 +23901,7 @@
         <v>10794</v>
       </c>
     </row>
-    <row r="652" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="652" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>1310</v>
       </c>
@@ -23929,7 +23925,7 @@
         <v>12763</v>
       </c>
     </row>
-    <row r="653" spans="1:8" s="3" customFormat="1">
+    <row r="653" spans="1:8" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>875</v>
       </c>
@@ -23953,7 +23949,7 @@
         <v>10361</v>
       </c>
     </row>
-    <row r="654" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="654" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>1315</v>
       </c>
@@ -23977,7 +23973,7 @@
         <v>10254</v>
       </c>
     </row>
-    <row r="655" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="655" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>1342</v>
       </c>
@@ -24001,7 +23997,7 @@
         <v>10370</v>
       </c>
     </row>
-    <row r="656" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="656" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>880</v>
       </c>
@@ -24025,7 +24021,7 @@
         <v>11214</v>
       </c>
     </row>
-    <row r="657" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="657" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>1338</v>
       </c>
@@ -24049,7 +24045,7 @@
         <v>12807</v>
       </c>
     </row>
-    <row r="658" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="658" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>2005</v>
       </c>
@@ -24073,7 +24069,7 @@
         <v>13792</v>
       </c>
     </row>
-    <row r="659" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="659" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>1373</v>
       </c>
@@ -24097,7 +24093,7 @@
         <v>12889</v>
       </c>
     </row>
-    <row r="660" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="660" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>1668</v>
       </c>
@@ -24121,7 +24117,7 @@
         <v>10093</v>
       </c>
     </row>
-    <row r="661" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="661" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>884</v>
       </c>
@@ -24145,7 +24141,7 @@
         <v>10225</v>
       </c>
     </row>
-    <row r="662" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="662" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>885</v>
       </c>
@@ -24169,7 +24165,7 @@
         <v>11215</v>
       </c>
     </row>
-    <row r="663" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="663" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>1669</v>
       </c>
@@ -24193,7 +24189,7 @@
         <v>12908</v>
       </c>
     </row>
-    <row r="664" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="664" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>887</v>
       </c>
@@ -24217,7 +24213,7 @@
         <v>10311</v>
       </c>
     </row>
-    <row r="665" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="665" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>889</v>
       </c>
@@ -24241,7 +24237,7 @@
         <v>10294</v>
       </c>
     </row>
-    <row r="666" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="666" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>1670</v>
       </c>
@@ -24265,7 +24261,7 @@
         <v>13114</v>
       </c>
     </row>
-    <row r="667" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="667" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>1104</v>
       </c>
@@ -24289,7 +24285,7 @@
         <v>12691</v>
       </c>
     </row>
-    <row r="668" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="668" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>1174</v>
       </c>
@@ -24313,7 +24309,7 @@
         <v>12725</v>
       </c>
     </row>
-    <row r="669" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="669" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>892</v>
       </c>
@@ -24337,7 +24333,7 @@
         <v>11108</v>
       </c>
     </row>
-    <row r="670" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="670" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>1129</v>
       </c>
@@ -24361,7 +24357,7 @@
         <v>12730</v>
       </c>
     </row>
-    <row r="671" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="671" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>1671</v>
       </c>
@@ -24385,7 +24381,7 @@
         <v>11665</v>
       </c>
     </row>
-    <row r="672" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="672" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>894</v>
       </c>
@@ -24409,7 +24405,7 @@
         <v>11295</v>
       </c>
     </row>
-    <row r="673" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="673" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>897</v>
       </c>
@@ -24433,7 +24429,7 @@
         <v>12436</v>
       </c>
     </row>
-    <row r="674" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="674" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>899</v>
       </c>
@@ -24457,7 +24453,7 @@
         <v>10788</v>
       </c>
     </row>
-    <row r="675" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="675" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>901</v>
       </c>
@@ -24481,7 +24477,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="676" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="676" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>1093</v>
       </c>
@@ -24505,7 +24501,7 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="677" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="677" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
         <v>1294</v>
       </c>
@@ -24529,7 +24525,7 @@
         <v>10168</v>
       </c>
     </row>
-    <row r="678" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="678" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>904</v>
       </c>
@@ -24553,7 +24549,7 @@
         <v>10169</v>
       </c>
     </row>
-    <row r="679" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="679" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>906</v>
       </c>
@@ -24577,7 +24573,7 @@
         <v>10698</v>
       </c>
     </row>
-    <row r="680" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="680" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>1259</v>
       </c>
@@ -24601,7 +24597,7 @@
         <v>11197</v>
       </c>
     </row>
-    <row r="681" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="681" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
         <v>912</v>
       </c>
@@ -24625,7 +24621,7 @@
         <v>12395</v>
       </c>
     </row>
-    <row r="682" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="682" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>1295</v>
       </c>
@@ -24649,7 +24645,7 @@
         <v>11749</v>
       </c>
     </row>
-    <row r="683" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="683" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
         <v>1296</v>
       </c>
@@ -24673,7 +24669,7 @@
         <v>10658</v>
       </c>
     </row>
-    <row r="684" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="684" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>2094</v>
       </c>
@@ -24697,7 +24693,7 @@
         <v>13892</v>
       </c>
     </row>
-    <row r="685" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="685" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>1674</v>
       </c>
@@ -24721,7 +24717,7 @@
         <v>10803</v>
       </c>
     </row>
-    <row r="686" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="686" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>919</v>
       </c>
@@ -24745,7 +24741,7 @@
         <v>11218</v>
       </c>
     </row>
-    <row r="687" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="687" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
         <v>921</v>
       </c>
@@ -24769,7 +24765,7 @@
         <v>10360</v>
       </c>
     </row>
-    <row r="688" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="688" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>924</v>
       </c>
@@ -24793,7 +24789,7 @@
         <v>11776</v>
       </c>
     </row>
-    <row r="689" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="689" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>1672</v>
       </c>
@@ -24817,7 +24813,7 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="690" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="690" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>927</v>
       </c>
@@ -24841,7 +24837,7 @@
         <v>10194</v>
       </c>
     </row>
-    <row r="691" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="691" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>1297</v>
       </c>
@@ -24865,7 +24861,7 @@
         <v>12504</v>
       </c>
     </row>
-    <row r="692" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="692" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>1298</v>
       </c>
@@ -24889,7 +24885,7 @@
         <v>11617</v>
       </c>
     </row>
-    <row r="693" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="693" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>934</v>
       </c>
@@ -24913,7 +24909,7 @@
         <v>10641</v>
       </c>
     </row>
-    <row r="694" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="694" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>1673</v>
       </c>
@@ -24937,7 +24933,7 @@
         <v>10227</v>
       </c>
     </row>
-    <row r="695" spans="1:8" s="3" customFormat="1" ht="36">
+    <row r="695" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>1063</v>
       </c>
@@ -24961,7 +24957,7 @@
         <v>12570</v>
       </c>
     </row>
-    <row r="696" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="696" spans="1:8" s="3" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>1500</v>
       </c>
@@ -24985,7 +24981,7 @@
         <v>12909</v>
       </c>
     </row>
-    <row r="697" spans="1:8" s="3" customFormat="1" ht="24">
+    <row r="697" spans="1:8" s="3" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>940</v>
       </c>
@@ -25009,7 +25005,7 @@
         <v>10136</v>
       </c>
     </row>
-    <row r="698" spans="1:8" s="3" customFormat="1" ht="48">
+    <row r="698" spans="1:8" s="3" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>1359</v>
       </c>
@@ -25033,7 +25029,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="24">
+    <row r="699" spans="1:8" ht="24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="12" t="s">
         <v>1685</v>
       </c>
@@ -25058,15 +25054,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XCS699"/>
-  <sortState ref="A118:XCS123">
+  <autoFilter ref="A1:XCS699" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="OLONGAPO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A118:XCS123">
     <sortCondition ref="A118:A123"/>
   </sortState>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I506">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I506" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PRIVATE,GOVERNMENT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H506">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H506" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PRIMARY CARE FACILITY(INFIRMARY),LEVEL 1,LEVEL 2,LEVEL 3"</formula1>
     </dataValidation>
   </dataValidations>
